--- a/teams.xlsx
+++ b/teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/DeplaceDeLair/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF35FE36-B7E6-034B-BDD6-B7FE7A486B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DD1F5B-5105-0449-96F1-0E416C99A753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1540" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teams" sheetId="1" r:id="rId1"/>
@@ -20,48 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Les meilleurs</t>
   </si>
   <si>
-    <t>H20</t>
-  </si>
-  <si>
-    <t>equipe3</t>
-  </si>
-  <si>
-    <t>equipe4</t>
-  </si>
-  <si>
-    <t>equipe5</t>
-  </si>
-  <si>
-    <t>equipe6</t>
-  </si>
-  <si>
-    <t>equipe7</t>
-  </si>
-  <si>
-    <t>essai1_distance</t>
-  </si>
-  <si>
-    <t>essai1_temps</t>
-  </si>
-  <si>
-    <t>essai2_distance</t>
-  </si>
-  <si>
-    <t>essai2_temps</t>
-  </si>
-  <si>
-    <t>essai3_distance</t>
-  </si>
-  <si>
-    <t>essai3_temps</t>
-  </si>
-  <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>1_distance</t>
+  </si>
+  <si>
+    <t>1_temps</t>
+  </si>
+  <si>
+    <t>2_distance</t>
+  </si>
+  <si>
+    <t>2_temps</t>
+  </si>
+  <si>
+    <t>3_distance</t>
+  </si>
+  <si>
+    <t>3_temps</t>
+  </si>
+  <si>
+    <t>Les moins bons</t>
+  </si>
+  <si>
+    <t>Supreme Dolphins</t>
+  </si>
+  <si>
+    <t>Wonderful Buffaloes</t>
+  </si>
+  <si>
+    <t>Powerful Pirates</t>
+  </si>
+  <si>
+    <t>Blue Stallions</t>
+  </si>
+  <si>
+    <t>Green Beavers</t>
+  </si>
+  <si>
+    <t>Voodoo Islanders</t>
+  </si>
+  <si>
+    <t>Unaccountable Razorbacks</t>
+  </si>
+  <si>
+    <t>Dangerous Mountaineers</t>
+  </si>
+  <si>
+    <t>Supreme Oilers</t>
+  </si>
+  <si>
+    <t>Black Cougars</t>
+  </si>
+  <si>
+    <t>Bald Reds</t>
+  </si>
+  <si>
+    <t>Unaccountable Archers</t>
   </si>
 </sst>
 </file>
@@ -204,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +403,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -545,8 +572,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -902,83 +932,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
